--- a/output/experiments.xlsx
+++ b/output/experiments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Train</t>
   </si>
@@ -41,6 +41,105 @@
   </si>
   <si>
     <t>Probably the linear regression is overfitting?</t>
+  </si>
+  <si>
+    <t>Lasso tuned</t>
+  </si>
+  <si>
+    <t>used in the model interpretation</t>
+  </si>
+  <si>
+    <t>Catboost vanilla</t>
+  </si>
+  <si>
+    <t>train 0.0928, test 0.1095</t>
+  </si>
+  <si>
+    <t>with outlier removal</t>
+  </si>
+  <si>
+    <t>and all features</t>
+  </si>
+  <si>
+    <t>train 0.092, test 0.112</t>
+  </si>
+  <si>
+    <t>without ordinal categories and others</t>
+  </si>
+  <si>
+    <t>train 0.095, test 0.111</t>
+  </si>
+  <si>
+    <t>without simplifcation</t>
+  </si>
+  <si>
+    <t>without totalizes &amp; poly</t>
+  </si>
+  <si>
+    <t>train 0.0928, test 0.1093</t>
+  </si>
+  <si>
+    <t>with poly</t>
+  </si>
+  <si>
+    <t>with poly and with skewed values</t>
+  </si>
+  <si>
+    <t>train 0.0935, test 0.1098</t>
+  </si>
+  <si>
+    <t>train 0.0926, test 0.1126</t>
+  </si>
+  <si>
+    <t>with  only outlier removal</t>
+  </si>
+  <si>
+    <t>train 0.0974, test 0.1385</t>
+  </si>
+  <si>
+    <t>without anything</t>
+  </si>
+  <si>
+    <t>train 0.0997, test 0.1374</t>
+  </si>
+  <si>
+    <t>including ordinal categories</t>
+  </si>
+  <si>
+    <t>train 0.0973, test 0.1385</t>
+  </si>
+  <si>
+    <t>including simplification</t>
+  </si>
+  <si>
+    <t>train 0.0987, test 0.1373</t>
+  </si>
+  <si>
+    <t>with everything except poly</t>
+  </si>
+  <si>
+    <t>train 0.0956, test 0.1220</t>
+  </si>
+  <si>
+    <t>with everything inc poly</t>
+  </si>
+  <si>
+    <t>train 0.09285, test 0.10947</t>
+  </si>
+  <si>
+    <t>median imputation</t>
+  </si>
+  <si>
+    <t>train 0.09287, test 0.10935</t>
+  </si>
+  <si>
+    <t>mean imputation</t>
+  </si>
+  <si>
+    <t>LinearRegression train 0.0896, test 40814785412.9226 Lasso train 0.0956, test 0.1220 Ridge train 0.0942, test 0.1255 ElasticNet train 0.0962, test 0.1217 svm.SVR train 0.1244, test 0.1377 KNeighborsRegressor train -0.0000, test 0.1924 RandomForestRegressor train 0.0536, test 0.1387 CatBoostRegressor train 0.0893, test 0.1257 xgb.XGBRegressor train 0.0332, test 0.1319 lgb.LGBMRegressor train 0.0883, test 0.1271 HistGradientBoostingRegressor train 0.0410, test 0.1312 LassoCV train 0.1067, test 0.1287 MLPRegressor train 0.1246, test 0.1875</t>
+  </si>
+  <si>
+    <t>stacking model train 0.0880, test 0.1066</t>
   </si>
 </sst>
 </file>
@@ -74,9 +173,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,15 +189,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,13 +204,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,32 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,22 +240,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -189,6 +272,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -197,22 +295,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,61 +326,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,121 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,45 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,7 +539,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +609,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -523,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,134 +640,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +775,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,6 +839,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>591185</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7744460" y="971550"/>
+          <a:ext cx="9763125" cy="3552825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,15 +1146,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="9.57142857142857"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="14.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
@@ -1051,8 +1200,182 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0.096</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>0.046</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/experiments.xlsx
+++ b/output/experiments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Train</t>
   </si>
@@ -140,6 +140,84 @@
   </si>
   <si>
     <t>stacking model train 0.0880, test 0.1066</t>
+  </si>
+  <si>
+    <t>train 0.09118, test 0.10955</t>
+  </si>
+  <si>
+    <t>categorifying certain columns doesnt help</t>
+  </si>
+  <si>
+    <t>train 0.09432, test 0.11155</t>
+  </si>
+  <si>
+    <t>box cox of skewed features</t>
+  </si>
+  <si>
+    <t>train 0.09603, test 0.11480</t>
+  </si>
+  <si>
+    <t>log of skewed features</t>
+  </si>
+  <si>
+    <t>nothing done with skewness</t>
+  </si>
+  <si>
+    <t>train 0.09148, test 0.11241</t>
+  </si>
+  <si>
+    <t>RobustScaler</t>
+  </si>
+  <si>
+    <t>NEW lasso baseline</t>
+  </si>
+  <si>
+    <t>train 0.09576, test 0.10799</t>
+  </si>
+  <si>
+    <t>train 0.09564, test 0.10790</t>
+  </si>
+  <si>
+    <t>added  some HASx features</t>
+  </si>
+  <si>
+    <t>train 0.09567, test 0.10789</t>
+  </si>
+  <si>
+    <t>remove id</t>
+  </si>
+  <si>
+    <t>train 0.09482, test 0.10760</t>
+  </si>
+  <si>
+    <t>adding log and squared features</t>
+  </si>
+  <si>
+    <t>train 0.09483, test 0.10757</t>
+  </si>
+  <si>
+    <t>only  log features</t>
+  </si>
+  <si>
+    <t>train 0.09459, test 0.10789</t>
+  </si>
+  <si>
+    <t>ex squeard</t>
+  </si>
+  <si>
+    <t>train 0.11129, test 0.12011</t>
+  </si>
+  <si>
+    <t>ex third</t>
+  </si>
+  <si>
+    <t>train 0.09463, test 0.10778</t>
+  </si>
+  <si>
+    <t>ex second</t>
+  </si>
+  <si>
+    <t>stacking model train 0.0831, test 0.1062</t>
   </si>
 </sst>
 </file>
@@ -149,10 +227,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +252,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="var(--vscode-editor-font-family"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -187,16 +271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,24 +333,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,40 +362,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +410,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +601,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,40 +662,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,134 +724,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -778,6 +862,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,10 +1233,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1369,8 +1456,119 @@
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
